--- a/input/goa/Master sheet_EVCI Locations_29Sep21_Final.xlsx
+++ b/input/goa/Master sheet_EVCI Locations_29Sep21_Final.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="281">
   <si>
     <t xml:space="preserve">Sr. No</t>
   </si>
@@ -863,9 +863,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sr__NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traffic Congestion</t>
   </si>
   <si>
     <t xml:space="preserve">Goa University Bus Stop</t>
@@ -1034,7 +1031,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1060,15 +1057,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -1096,23 +1085,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1147,10 +1124,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1181,12 +1154,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1252,7 +1225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1262,17 +1235,15 @@
       <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,7 +1300,7 @@
       <c r="H2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="I2" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1358,7 +1329,7 @@
       <c r="H3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="6" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -1387,7 +1358,7 @@
       <c r="H4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="6" t="n">
+      <c r="I4" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1416,7 +1387,7 @@
       <c r="H5" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="6" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -1445,7 +1416,7 @@
       <c r="H6" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="6" t="n">
+      <c r="I6" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1474,7 +1445,7 @@
       <c r="H7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="I7" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1503,7 +1474,7 @@
       <c r="H8" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="6" t="n">
+      <c r="I8" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1532,7 +1503,7 @@
       <c r="H9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="n">
+      <c r="I9" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1561,7 +1532,7 @@
       <c r="H10" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="n">
+      <c r="I10" s="6" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -1590,7 +1561,7 @@
       <c r="H11" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="7" t="n">
+      <c r="I11" s="6" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -1619,7 +1590,7 @@
       <c r="H12" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="6" t="n">
+      <c r="I12" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1648,7 +1619,7 @@
       <c r="H13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="7" t="n">
+      <c r="I13" s="6" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -1677,7 +1648,7 @@
       <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="6" t="n">
+      <c r="I14" s="2" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -1693,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1703,9 +1674,8 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.99"/>
@@ -1713,32 +1683,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -2035,7 +2004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2045,10 +2014,9 @@
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.43"/>
@@ -2056,62 +2024,61 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="11" t="n">
         <v>73.79674572</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="11" t="n">
         <v>15.69389079</v>
       </c>
-      <c r="F2" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13" t="n">
+      <c r="F2" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -2119,28 +2086,28 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>73.71543707</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>15.69249831</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13" t="n">
+      <c r="G3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -2148,28 +2115,28 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="11" t="n">
         <v>73.82966083</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="11" t="n">
         <v>15.63527637</v>
       </c>
-      <c r="F4" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="n">
+      <c r="F4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -2177,28 +2144,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="11" t="n">
         <v>73.78651755</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="11" t="n">
         <v>15.5665981</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="n">
+      <c r="F5" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -2206,57 +2173,57 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>73.78049671</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="11" t="n">
         <v>15.54384897</v>
       </c>
-      <c r="F6" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13" t="n">
+      <c r="F6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>270000</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="11" t="n">
         <v>73.8390247</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="11" t="n">
         <v>15.49536389</v>
       </c>
-      <c r="F7" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13" t="n">
+      <c r="F7" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -2264,28 +2231,28 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="11" t="n">
         <v>73.82107242</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="11" t="n">
         <v>15.4958003</v>
       </c>
-      <c r="F8" s="16" t="n">
+      <c r="F8" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="n">
+      <c r="G8" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I8" s="3" t="n">
@@ -2293,28 +2260,28 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="11" t="n">
         <v>73.80210109</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="11" t="n">
         <v>15.50829734</v>
       </c>
-      <c r="F9" s="16" t="n">
+      <c r="F9" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="n">
+      <c r="G9" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I9" s="3" t="n">
@@ -2322,28 +2289,28 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="11" t="n">
         <v>73.92802986</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="11" t="n">
         <v>15.49699926</v>
       </c>
-      <c r="F10" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="n">
+      <c r="F10" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="3" t="n">
@@ -2351,28 +2318,28 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="11" t="n">
         <v>73.87334558</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="11" t="n">
         <v>15.43989964</v>
       </c>
-      <c r="F11" s="16" t="n">
+      <c r="F11" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G11" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13" t="n">
+      <c r="G11" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I11" s="3" t="n">
@@ -2380,28 +2347,28 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="11" t="n">
         <v>73.96098357</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="11" t="n">
         <v>15.46263955</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="n">
+      <c r="G12" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="n">
@@ -2409,28 +2376,28 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="11" t="n">
         <v>74.00610506</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E13" s="11" t="n">
         <v>15.38141544</v>
       </c>
-      <c r="F13" s="16" t="n">
+      <c r="F13" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="n">
+      <c r="G13" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I13" s="3" t="n">
@@ -2438,28 +2405,28 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="11" t="n">
         <v>73.95777188</v>
       </c>
-      <c r="E14" s="13" t="n">
+      <c r="E14" s="11" t="n">
         <v>15.49861974</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="n">
+      <c r="G14" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="n">
@@ -2467,28 +2434,28 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="11" t="n">
         <v>73.90555295</v>
       </c>
-      <c r="E15" s="13" t="n">
+      <c r="E15" s="11" t="n">
         <v>15.48771776</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13" t="n">
+      <c r="G15" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="3" t="n">
@@ -2496,28 +2463,28 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="9" t="n">
         <v>17</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="11" t="n">
         <v>73.9258749</v>
       </c>
-      <c r="E16" s="13" t="n">
+      <c r="E16" s="11" t="n">
         <v>15.37455221</v>
       </c>
-      <c r="F16" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13" t="n">
+      <c r="F16" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="n">
@@ -2525,28 +2492,28 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="9" t="n">
         <v>18</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="11" t="n">
         <v>73.89903472</v>
       </c>
-      <c r="E17" s="13" t="n">
+      <c r="E17" s="11" t="n">
         <v>15.42662039</v>
       </c>
-      <c r="F17" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13" t="n">
+      <c r="F17" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="3" t="n">
@@ -2554,28 +2521,28 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="9" t="n">
         <v>19</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="11" t="n">
         <v>73.97501406</v>
       </c>
-      <c r="E18" s="13" t="n">
+      <c r="E18" s="11" t="n">
         <v>15.44263635</v>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13" t="n">
+      <c r="G18" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="3" t="n">
@@ -2583,28 +2550,28 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="9" t="n">
         <v>20</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="13" t="n">
+      <c r="D19" s="11" t="n">
         <v>74.00700096</v>
       </c>
-      <c r="E19" s="13" t="n">
+      <c r="E19" s="11" t="n">
         <v>15.4023969</v>
       </c>
-      <c r="F19" s="16" t="n">
+      <c r="F19" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H19" s="13" t="n">
+      <c r="G19" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="3" t="n">
@@ -2612,28 +2579,28 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="13" t="n">
+      <c r="D20" s="11" t="n">
         <v>74.17208083</v>
       </c>
-      <c r="E20" s="13" t="n">
+      <c r="E20" s="11" t="n">
         <v>15.36486648</v>
       </c>
-      <c r="F20" s="16" t="n">
+      <c r="F20" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G20" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="n">
+      <c r="G20" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="3" t="n">
@@ -2641,28 +2608,28 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="D21" s="13" t="n">
+      <c r="D21" s="11" t="n">
         <v>74.18153791</v>
       </c>
-      <c r="E21" s="13" t="n">
+      <c r="E21" s="11" t="n">
         <v>15.36088549</v>
       </c>
-      <c r="F21" s="16" t="n">
+      <c r="F21" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13" t="n">
+      <c r="G21" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="3" t="n">
@@ -2670,64 +2637,64 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19" t="n">
+      <c r="A22" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="11" t="n">
         <v>74.1070607</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="11" t="n">
         <v>15.261623</v>
       </c>
-      <c r="F22" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G22" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" s="13" t="n">
+      <c r="F22" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="3" t="n">
         <v>270000</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19" t="n">
+      <c r="A23" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="16" t="n">
+      <c r="D23" s="11" t="n">
         <v>73.927557</v>
       </c>
-      <c r="E23" s="16" t="n">
+      <c r="E23" s="11" t="n">
         <v>15.3612928</v>
       </c>
-      <c r="F23" s="13" t="n">
-        <v>5</v>
-      </c>
-      <c r="G23" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" s="16" t="n">
+      <c r="F23" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="3" t="n">
         <v>270000</v>
       </c>
-      <c r="J23" s="9"/>
+      <c r="J23" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2741,7 +2708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2751,58 +2718,56 @@
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>263</v>
       </c>
       <c r="D2" s="1" t="n">
@@ -2811,13 +2776,13 @@
       <c r="E2" s="1" t="n">
         <v>15.2908063</v>
       </c>
-      <c r="F2" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13" t="n">
+      <c r="F2" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -2825,28 +2790,28 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>74.1186112</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>15.3949975</v>
       </c>
-      <c r="F3" s="16" t="n">
+      <c r="F3" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13" t="n">
+      <c r="G3" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -2854,28 +2819,28 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="11" t="n">
         <v>74.0746702</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="11" t="n">
         <v>15.6134691</v>
       </c>
-      <c r="F4" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13" t="n">
+      <c r="F4" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="3" t="n">
@@ -2883,28 +2848,28 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="11" t="n">
         <v>74.0931632</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="11" t="n">
         <v>14.9091431</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13" t="n">
+      <c r="F5" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="3" t="n">
@@ -2912,57 +2877,57 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>73.8643807</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="11" t="n">
         <v>15.7892445</v>
       </c>
-      <c r="F6" s="16" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13" t="n">
+      <c r="F6" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="3" t="n">
         <v>270000</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="11" t="n">
         <v>73.829157</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="11" t="n">
         <v>15.495079</v>
       </c>
-      <c r="F7" s="16" t="n">
+      <c r="F7" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13" t="n">
+      <c r="G7" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="3" t="n">
@@ -2981,398 +2946,396 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="109.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="109.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="27" t="n">
+        <v>15.5258350606</v>
+      </c>
+      <c r="F2" s="27" t="n">
+        <v>73.8271475049</v>
+      </c>
+      <c r="G2" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="27" t="n">
+        <v>15.5886002582</v>
+      </c>
+      <c r="F3" s="27" t="n">
+        <v>73.9497003639</v>
+      </c>
+      <c r="G3" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="27" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="27" t="n">
+        <v>15.1822992946</v>
+      </c>
+      <c r="F4" s="27" t="n">
+        <v>73.9972993712</v>
+      </c>
+      <c r="G4" s="27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="27" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E5" s="27" t="n">
+        <v>15.3882216267</v>
+      </c>
+      <c r="F5" s="27" t="n">
+        <v>73.8474546206</v>
+      </c>
+      <c r="G5" s="27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="27" t="n">
+        <v>19</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="27" t="n">
+        <v>15.5379377727</v>
+      </c>
+      <c r="F6" s="27" t="n">
+        <v>73.8308961297</v>
+      </c>
+      <c r="G6" s="27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="27" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="32" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="33" t="n">
-        <v>15.5258350606</v>
-      </c>
-      <c r="F2" s="33" t="n">
-        <v>73.8271475049</v>
-      </c>
-      <c r="G2" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33" t="n">
+      <c r="D7" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="27" t="n">
+        <v>15.4584041782</v>
+      </c>
+      <c r="F7" s="27" t="n">
+        <v>73.8299334634</v>
+      </c>
+      <c r="G7" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" s="33" t="n">
-        <v>15.5886002582</v>
-      </c>
-      <c r="F3" s="33" t="n">
-        <v>73.9497003639</v>
-      </c>
-      <c r="G3" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="33" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="27" t="n">
+        <v>24</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="27" t="n">
+        <v>15.5890920123</v>
+      </c>
+      <c r="F8" s="27" t="n">
+        <v>73.8102573031</v>
+      </c>
+      <c r="G8" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="27" t="n">
+        <v>15.4953442993</v>
+      </c>
+      <c r="F9" s="27" t="n">
+        <v>73.8370294958</v>
+      </c>
+      <c r="G9" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="26" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E10" s="27" t="n">
+        <v>15.3802628967</v>
+      </c>
+      <c r="F10" s="27" t="n">
+        <v>73.8348099418</v>
+      </c>
+      <c r="G10" s="27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="27" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="27" t="n">
+        <v>15.2857796957</v>
+      </c>
+      <c r="F11" s="27" t="n">
+        <v>73.9583513989</v>
+      </c>
+      <c r="G11" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="27" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" s="27" t="n">
+        <v>15.4998200572</v>
+      </c>
+      <c r="F12" s="27" t="n">
+        <v>73.82241616</v>
+      </c>
+      <c r="G12" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="27" t="n">
+        <v>15.5594539617</v>
+      </c>
+      <c r="F13" s="27" t="n">
+        <v>74.0197312827</v>
+      </c>
+      <c r="G13" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="27" t="n">
+        <v>15.3698217138</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <v>73.9445637145</v>
+      </c>
+      <c r="G14" s="27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="C4" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E4" s="33" t="n">
-        <v>15.1822992946</v>
-      </c>
-      <c r="F4" s="33" t="n">
-        <v>73.9972993712</v>
-      </c>
-      <c r="G4" s="33" t="n">
+      <c r="B15" s="27" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="33" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="33" t="n">
-        <v>15.3882216267</v>
-      </c>
-      <c r="F5" s="33" t="n">
-        <v>73.8474546206</v>
-      </c>
-      <c r="G5" s="33" t="n">
+      <c r="C15" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="27" t="n">
+        <v>15.4874402199</v>
+      </c>
+      <c r="F15" s="27" t="n">
+        <v>73.9775334641</v>
+      </c>
+      <c r="G15" s="27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="26" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="27" t="n">
+        <v>15.5459725007</v>
+      </c>
+      <c r="F16" s="27" t="n">
+        <v>73.7601339154</v>
+      </c>
+      <c r="G16" s="27" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="33" t="n">
-        <v>19</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E6" s="33" t="n">
-        <v>15.5379377727</v>
-      </c>
-      <c r="F6" s="33" t="n">
-        <v>73.8308961297</v>
-      </c>
-      <c r="G6" s="33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="33" t="n">
-        <v>23</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="E7" s="33" t="n">
-        <v>15.4584041782</v>
-      </c>
-      <c r="F7" s="33" t="n">
-        <v>73.8299334634</v>
-      </c>
-      <c r="G7" s="33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="33" t="n">
-        <v>24</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="33" t="n">
-        <v>15.5890920123</v>
-      </c>
-      <c r="F8" s="33" t="n">
-        <v>73.8102573031</v>
-      </c>
-      <c r="G8" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" s="33" t="n">
-        <v>30</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="D9" s="33" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="29"/>
+      <c r="D18" s="27" t="s">
         <v>280</v>
-      </c>
-      <c r="E9" s="33" t="n">
-        <v>15.4953442993</v>
-      </c>
-      <c r="F9" s="33" t="n">
-        <v>73.8370294958</v>
-      </c>
-      <c r="G9" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="33" t="n">
-        <v>15.3802628967</v>
-      </c>
-      <c r="F10" s="33" t="n">
-        <v>73.8348099418</v>
-      </c>
-      <c r="G10" s="33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="32" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" s="33" t="n">
-        <v>6</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="33" t="n">
-        <v>15.2857796957</v>
-      </c>
-      <c r="F11" s="33" t="n">
-        <v>73.9583513989</v>
-      </c>
-      <c r="G11" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="33" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="E12" s="33" t="n">
-        <v>15.4998200572</v>
-      </c>
-      <c r="F12" s="33" t="n">
-        <v>73.82241616</v>
-      </c>
-      <c r="G12" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="32" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="33" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="33" t="n">
-        <v>15.5594539617</v>
-      </c>
-      <c r="F13" s="33" t="n">
-        <v>74.0197312827</v>
-      </c>
-      <c r="G13" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="33" t="n">
-        <v>15.3698217138</v>
-      </c>
-      <c r="F14" s="33" t="n">
-        <v>73.9445637145</v>
-      </c>
-      <c r="G14" s="33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="32" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="33" t="n">
-        <v>15.4874402199</v>
-      </c>
-      <c r="F15" s="33" t="n">
-        <v>73.9775334641</v>
-      </c>
-      <c r="G15" s="33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="32" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="33" t="n">
-        <v>15.5459725007</v>
-      </c>
-      <c r="F16" s="33" t="n">
-        <v>73.7601339154</v>
-      </c>
-      <c r="G16" s="33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="35"/>
-      <c r="D18" s="33" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3387,7 +3350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3397,18 +3360,16 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="53.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,7 +3616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3665,9 +3626,8 @@
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.99"/>
@@ -3675,7 +3635,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3726,7 +3685,7 @@
       <c r="F2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -3755,7 +3714,7 @@
       <c r="F3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="8" t="n">
+      <c r="G3" s="1" t="n">
         <v>3</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -3784,7 +3743,7 @@
       <c r="F4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="n">
+      <c r="G4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -3813,7 +3772,7 @@
       <c r="F5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -3842,7 +3801,7 @@
       <c r="F6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -3864,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -3874,17 +3833,15 @@
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4247,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4257,9 +4214,8 @@
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
@@ -4267,32 +4223,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="3" width="18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -4300,28 +4255,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="11" t="n">
         <v>73.8271475</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="11" t="n">
         <v>15.52583506</v>
       </c>
-      <c r="F2" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10" t="n">
+      <c r="F2" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
@@ -4329,28 +4284,28 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>73.81785861</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>15.4864612</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="G3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="n">
@@ -4358,292 +4313,292 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="11" t="n">
         <v>73.82757058</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="11" t="n">
         <v>15.49695318</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G4" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="n">
+      <c r="G4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="11" t="n">
         <v>73.76444456</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="11" t="n">
         <v>15.53793941</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="n">
+      <c r="G5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>73.9123244</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="11" t="n">
         <v>15.49823116</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="n">
+      <c r="G6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="11" t="n">
         <v>73.76030917</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="11" t="n">
         <v>15.54563628</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="G7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="11" t="n">
         <v>74.00506427</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="11" t="n">
         <v>15.40141119</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="n">
+      <c r="G8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="11" t="n">
         <v>73.9136674</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="11" t="n">
         <v>15.5000602</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="10" t="n">
+      <c r="G9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I9" s="14" t="n">
+      <c r="I9" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="11" t="n">
         <v>73.98006385</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="11" t="n">
         <v>15.28034665</v>
       </c>
-      <c r="F10" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14" t="n">
+      <c r="F10" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="11" t="n">
         <v>73.95967822</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="11" t="n">
         <v>15.27135438</v>
       </c>
-      <c r="F11" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="F11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="11" t="n">
         <v>73.9183462</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="11" t="n">
         <v>15.44901309</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="F12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I12" s="14" t="n">
+      <c r="I12" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="11" t="n">
         <v>73.96282</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="11" t="n">
         <v>15.27274</v>
       </c>
-      <c r="F13" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10" t="n">
+      <c r="F13" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I13" s="14" t="n">
+      <c r="I13" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -4659,7 +4614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -4669,41 +4624,39 @@
       <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="3" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -4711,321 +4664,321 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="11" t="n">
         <v>73.82189093</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="11" t="n">
         <v>15.49872187</v>
       </c>
-      <c r="F2" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="10" t="n">
+      <c r="F2" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>73.81285306</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>15.58837675</v>
       </c>
-      <c r="F3" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="10" t="n">
+      <c r="F3" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="10" t="n">
+      <c r="H3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="11" t="n">
         <v>73.76414827</v>
       </c>
-      <c r="E4" s="13" t="n">
+      <c r="E4" s="11" t="n">
         <v>15.54525025</v>
       </c>
-      <c r="F4" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="10" t="n">
+      <c r="F4" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="11" t="n">
         <v>73.76031761</v>
       </c>
-      <c r="E5" s="13" t="n">
+      <c r="E5" s="11" t="n">
         <v>15.54611772</v>
       </c>
-      <c r="F5" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="10" t="n">
+      <c r="F5" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="11" t="n">
         <v>73.74218176</v>
       </c>
-      <c r="E6" s="13" t="n">
+      <c r="E6" s="11" t="n">
         <v>15.57256249</v>
       </c>
-      <c r="F6" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="n">
+      <c r="F6" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="11" t="n">
         <v>73.9583514</v>
       </c>
-      <c r="E7" s="13" t="n">
+      <c r="E7" s="11" t="n">
         <v>15.2857797</v>
       </c>
-      <c r="F7" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="F7" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="11" t="n">
         <v>73.96064833</v>
       </c>
-      <c r="E8" s="13" t="n">
+      <c r="E8" s="11" t="n">
         <v>15.27769275</v>
       </c>
-      <c r="F8" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G8" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="n">
+      <c r="F8" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="14" t="n">
+      <c r="I8" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="11" t="n">
         <v>73.96704514</v>
       </c>
-      <c r="E9" s="13" t="n">
+      <c r="E9" s="11" t="n">
         <v>15.25612892</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="n">
+      <c r="G9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="13" t="n">
+      <c r="D10" s="11" t="n">
         <v>73.76781612</v>
       </c>
-      <c r="E10" s="13" t="n">
+      <c r="E10" s="11" t="n">
         <v>15.52036901</v>
       </c>
-      <c r="F10" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14" t="n">
+      <c r="F10" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="11" t="n">
         <v>73.82241616</v>
       </c>
-      <c r="E11" s="13" t="n">
+      <c r="E11" s="11" t="n">
         <v>15.49982006</v>
       </c>
-      <c r="F11" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="14" t="n">
+      <c r="F11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="14" t="n">
+      <c r="H11" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="11" t="n">
         <v>73.76187178</v>
       </c>
-      <c r="E12" s="13" t="n">
+      <c r="E12" s="11" t="n">
         <v>15.57657379</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14" t="n">
+      <c r="F12" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
@@ -5041,7 +4994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5051,9 +5004,8 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
@@ -5063,32 +5015,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="14.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5096,28 +5047,28 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="11" t="n">
         <v>73.86813021</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="11" t="n">
         <v>15.73131829</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="H2" s="10" t="n">
+      <c r="H2" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="3" t="n">
@@ -5125,28 +5076,28 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="11" t="n">
         <v>73.83480994</v>
       </c>
-      <c r="E3" s="13" t="n">
+      <c r="E3" s="11" t="n">
         <v>15.3802629</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="10" t="n">
+      <c r="G3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="3" t="n">
@@ -5154,748 +5105,748 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-    </row>
-    <row r="7" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-    </row>
-    <row r="28" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-    </row>
-    <row r="29" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-    </row>
-    <row r="32" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-    </row>
-    <row r="33" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-    </row>
-    <row r="34" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-    </row>
-    <row r="36" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-    </row>
-    <row r="37" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="14"/>
-    </row>
-    <row r="38" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-    </row>
-    <row r="39" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-    </row>
-    <row r="40" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-    </row>
-    <row r="41" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-    </row>
-    <row r="42" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-    </row>
-    <row r="43" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-    </row>
-    <row r="44" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-    </row>
-    <row r="45" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="16"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="16"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="16"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="16"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="16"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="16"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="16"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="16"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" s="14" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="15"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="9"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="9"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="24"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="9"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="9"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="9"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="9"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="9"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24"/>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="9"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24"/>
-      <c r="B54" s="24"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="9"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="19"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24"/>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="9"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24"/>
-      <c r="B56" s="24"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="9"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="9"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24"/>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="9"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="10"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24"/>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="10"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24"/>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="10"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24"/>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="10"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="10"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="21"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="10"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="10"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="21"/>
+      <c r="I65" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5909,7 +5860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5919,9 +5870,8 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
@@ -5930,32 +5880,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
@@ -5963,466 +5912,466 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="11" t="n">
         <v>73.97091244</v>
       </c>
-      <c r="E2" s="16" t="n">
+      <c r="E2" s="11" t="n">
         <v>15.26777115</v>
       </c>
-      <c r="F2" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14" t="n">
+      <c r="F2" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="11" t="n">
         <v>73.85151599</v>
       </c>
-      <c r="E3" s="16" t="n">
+      <c r="E3" s="11" t="n">
         <v>15.38706711</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G3" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="n">
+      <c r="G3" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="n">
+      <c r="A4" s="9" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="11" t="n">
         <v>73.87692043</v>
       </c>
-      <c r="E4" s="16" t="n">
+      <c r="E4" s="11" t="n">
         <v>15.62992877</v>
       </c>
-      <c r="F4" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="n">
+      <c r="F4" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="11" t="n">
         <v>73.92205816</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="11" t="n">
         <v>15.31375223</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G5" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="n">
+      <c r="G5" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="11" t="n">
         <v>73.89736244</v>
       </c>
-      <c r="E6" s="16" t="n">
+      <c r="E6" s="11" t="n">
         <v>15.34497404</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G6" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="n">
+      <c r="G6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19" t="n">
+      <c r="A7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="11" t="n">
         <v>73.91172333</v>
       </c>
-      <c r="E7" s="16" t="n">
+      <c r="E7" s="11" t="n">
         <v>15.35382866</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="G7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="n">
+      <c r="A8" s="9" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="11" t="n">
         <v>73.81220818</v>
       </c>
-      <c r="E8" s="16" t="n">
+      <c r="E8" s="11" t="n">
         <v>15.39621743</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H8" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" s="14" t="n">
+      <c r="G8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="n">
+      <c r="A9" s="9" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="11" t="n">
         <v>74.04783946</v>
       </c>
-      <c r="E9" s="16" t="n">
+      <c r="E9" s="11" t="n">
         <v>15.26482343</v>
       </c>
-      <c r="F9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="n">
+      <c r="F9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="n">
+      <c r="A10" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" s="16" t="n">
+      <c r="D10" s="11" t="n">
         <v>73.939165</v>
       </c>
-      <c r="E10" s="16" t="n">
+      <c r="E10" s="11" t="n">
         <v>15.29167495</v>
       </c>
-      <c r="F10" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14" t="n">
+      <c r="F10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19" t="n">
+      <c r="A11" s="9" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="16" t="n">
+      <c r="D11" s="11" t="n">
         <v>74.03935573</v>
       </c>
-      <c r="E11" s="16" t="n">
+      <c r="E11" s="11" t="n">
         <v>15.00677394</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G11" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" s="14" t="n">
+      <c r="G11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19" t="n">
+      <c r="A12" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="11" t="n">
         <v>74.08778797</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="11" t="n">
         <v>14.93969469</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="14" t="n">
+      <c r="F12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="n">
+      <c r="A13" s="9" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="16" t="n">
+      <c r="D13" s="11" t="n">
         <v>73.92448058</v>
       </c>
-      <c r="E13" s="16" t="n">
+      <c r="E13" s="11" t="n">
         <v>15.49083487</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14" t="n">
+      <c r="G13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="n">
+      <c r="A14" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="11" t="n">
         <v>73.81677101</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="11" t="n">
         <v>15.70912602</v>
       </c>
-      <c r="F14" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="14" t="n">
+      <c r="F14" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12" t="n">
         <v>270000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="n">
+      <c r="A15" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="11" t="n">
         <v>74.10851476</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="11" t="n">
         <v>15.26418395</v>
       </c>
-      <c r="F15" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14" t="n">
+      <c r="F15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19" t="n">
+      <c r="A16" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="11" t="n">
         <v>73.87112858</v>
       </c>
-      <c r="E16" s="16" t="n">
+      <c r="E16" s="11" t="n">
         <v>15.37213067</v>
       </c>
-      <c r="F16" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="14" t="n">
+      <c r="F16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19" t="n">
+      <c r="A17" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="11" t="n">
         <v>74.24365015</v>
       </c>
-      <c r="E17" s="16" t="n">
+      <c r="E17" s="11" t="n">
         <v>15.33366589</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14" t="n">
+      <c r="G17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12" t="n">
         <v>135000</v>
       </c>
     </row>
@@ -6438,7 +6387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -6448,620 +6397,618 @@
       <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" s="28" customFormat="true" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="14" t="n">
+      <c r="D2" s="12" t="n">
         <v>73.83826595</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="12" t="n">
         <v>15.49610849</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="14" t="n">
-        <v>270000</v>
-      </c>
-      <c r="K2" s="18"/>
+      <c r="H2" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12" t="n">
+        <v>270000</v>
+      </c>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="10" t="n">
+      <c r="D3" s="8" t="n">
         <v>73.95619963</v>
       </c>
-      <c r="E3" s="10" t="n">
+      <c r="E3" s="8" t="n">
         <v>15.28780029</v>
       </c>
-      <c r="F3" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="14" t="n">
-        <v>270000</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="F3" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12" t="n">
+        <v>270000</v>
+      </c>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="16" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="8" t="n">
         <v>73.82070949</v>
       </c>
-      <c r="E4" s="10" t="n">
+      <c r="E4" s="8" t="n">
         <v>15.40031052</v>
       </c>
-      <c r="F4" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14" t="n">
-        <v>270000</v>
-      </c>
-      <c r="K4" s="9"/>
+      <c r="F4" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12" t="n">
+        <v>270000</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="16" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="8" t="n">
         <v>73.94970036</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="E5" s="8" t="n">
         <v>15.58860026</v>
       </c>
-      <c r="F5" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H5" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="14" t="n">
-        <v>270000</v>
-      </c>
-      <c r="K5" s="9"/>
-    </row>
-    <row r="6" s="28" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="F5" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12" t="n">
+        <v>270000</v>
+      </c>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D6" s="14" t="n">
+      <c r="D6" s="12" t="n">
         <v>73.83089726</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="12" t="n">
         <v>15.53794639</v>
       </c>
-      <c r="F6" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="14" t="n">
+      <c r="F6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="8" t="n">
         <v>73.82704436</v>
       </c>
-      <c r="E7" s="10" t="n">
+      <c r="E7" s="8" t="n">
         <v>15.50582261</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="14" t="n">
+      <c r="G7" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="8" t="n">
         <v>74.02775585</v>
       </c>
-      <c r="E8" s="10" t="n">
+      <c r="E8" s="8" t="n">
         <v>15.32156815</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G8" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="14" t="n">
+      <c r="G8" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="10" t="n">
+      <c r="D9" s="8" t="n">
         <v>73.99729937</v>
       </c>
-      <c r="E9" s="10" t="n">
+      <c r="E9" s="8" t="n">
         <v>15.18229929</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="14" t="n">
+      <c r="G9" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K9" s="9"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="8" t="n">
         <v>74.00261179</v>
       </c>
-      <c r="E10" s="10" t="n">
+      <c r="E10" s="8" t="n">
         <v>15.27128914</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="G10" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" s="14" t="n">
+      <c r="G10" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="8" t="n">
         <v>73.95721956</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="8" t="n">
         <v>15.27396891</v>
       </c>
-      <c r="F11" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H11" s="10" t="n">
+      <c r="F11" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="I11" s="14" t="n">
+      <c r="I11" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="10" t="n">
+      <c r="D12" s="8" t="n">
         <v>73.84745462</v>
       </c>
-      <c r="E12" s="10" t="n">
+      <c r="E12" s="8" t="n">
         <v>15.38822163</v>
       </c>
-      <c r="F12" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G12" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="10" t="n">
+      <c r="F12" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I12" s="3" t="n">
         <v>270000</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="8" t="n">
         <v>73.85014782</v>
       </c>
-      <c r="E13" s="10" t="n">
+      <c r="E13" s="8" t="n">
         <v>15.3873554</v>
       </c>
-      <c r="F13" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G13" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="14" t="n">
+      <c r="F13" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="16" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="8" t="n">
         <v>73.81111377</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="E14" s="8" t="n">
         <v>15.39842013</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="10" t="n">
+      <c r="G14" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="3" t="n">
         <v>270000</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="10" t="n">
+      <c r="D15" s="8" t="n">
         <v>73.90140072</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="E15" s="8" t="n">
         <v>15.61890228</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G15" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="14" t="n">
+      <c r="G15" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="D16" s="10" t="n">
+      <c r="D16" s="8" t="n">
         <v>73.8102573</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="E16" s="8" t="n">
         <v>15.58909201</v>
       </c>
-      <c r="F16" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G16" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="H16" s="10" t="n">
+      <c r="F16" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="3" t="n">
         <v>270000</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="n">
+      <c r="A17" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="10" t="n">
+      <c r="D17" s="8" t="n">
         <v>73.7441582</v>
       </c>
-      <c r="E17" s="10" t="n">
+      <c r="E17" s="8" t="n">
         <v>15.59852219</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="14" t="n">
+      <c r="G17" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="n">
+      <c r="A18" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="8" t="n">
         <v>73.90992213</v>
       </c>
-      <c r="E18" s="10" t="n">
+      <c r="E18" s="8" t="n">
         <v>15.50103031</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G18" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" s="14" t="n">
+      <c r="G18" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="n">
+      <c r="A19" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="8" t="n">
         <v>73.97081348</v>
       </c>
-      <c r="E19" s="10" t="n">
+      <c r="E19" s="8" t="n">
         <v>15.27201133</v>
       </c>
-      <c r="F19" s="14" t="n">
-        <v>5</v>
-      </c>
-      <c r="G19" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" s="14" t="n">
+      <c r="F19" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="n">
+      <c r="A20" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="10" t="n">
+      <c r="D20" s="8" t="n">
         <v>73.95535341</v>
       </c>
-      <c r="E20" s="10" t="n">
+      <c r="E20" s="8" t="n">
         <v>15.28782171</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F20" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" s="14" t="n">
+      <c r="G20" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12" t="n">
         <v>135000</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
